--- a/dados/Tratado/dicionario_rais.xlsx
+++ b/dados/Tratado/dicionario_rais.xlsx
@@ -1,1198 +1,1205 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fed8d7a7efb8cd6/Trampos/FJP/2022/Projeto OIT/Dados/rais_municipios.Rproj/dados/Tratado/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_B99231273CA96CD770B4AD7EAB1A11A6329A6548" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272E41EE-9FE4-4A70-AC05-D03578CA5572}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
-  <si>
-    <t xml:space="preserve">id_tabela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nome_coluna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobertura_temporal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microdados_vinculos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo_vinculo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1985(1)1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTATUTÁRIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRABALHADOR AVULSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRABALHADOR TEMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NÃO CLASSIFICADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLT U/PJ IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLT U/PF IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLT R/PJ IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLT R/PF IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTATUTARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTAT RGPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTAT N/EFET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVULSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994(1)2002, 2016(1)2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEMPORARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003(1)2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEMPORARIO/FIXO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APREND CONTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLT U/PJ DET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLT U/PF DET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLT R/PJ DET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLT R/PF DET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIRETOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONT PRZ DET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONT TMP DET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONT LEI EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONT LEI MUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGNORADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vinculo_ativo_3112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo_admissao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAO ADM ANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIM EMPREGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REEMPREGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANS C/ONUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANS S/ONUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REINTEGRACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECONDUCAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVERSAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXERC PROVIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQUISICAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">motivo_desligamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAO DESL ANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEM COM JC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEM SEM JC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERM CONTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESL COM JC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESL SEM JC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSS OUT CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">READAP/REDIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CESSAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDISTRIBUIÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUD. REGIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFORMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALECIMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALEC AC TRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALEC AC TIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALEC D PROF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOS TS CRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOS TS SRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOS ID CRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOS IN ACID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOS IN DOEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOS COMPULS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOS IN OUTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOS ID SRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOS ESP CRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOS ESP SRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">causa_desligamento_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACI TRB TIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACI TRB TJT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOEN REL TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOEN NREL TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIC MATERNID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERV MILITAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIC SEM VENC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM AFASTAMENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">causa_desligamento_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">causa_desligamento_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faixa_horas_contratadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Até 12 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 a 15 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 a 20 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 a 30 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 a 40 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 a 44 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicador_cei_vinculado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicador_trabalho_parcial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicador_trabalho_intermitente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faixa_remuneracao_media_sm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Até 0,50 salários mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,51 a 1,00 salários mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,01 a 1,50 salários mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,51 a 2,00 salários mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,01 a 3,00 salários mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,01 a 4,00 salários mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,01 a 5,00 salários mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,01 a 7,00 salários mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,01 a 10,00 salários mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,01 a 15,00 salários mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,01 a 20,00 salários mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mais de 20,00 salários mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faixa_remuneracao_dezembro_sm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo_salario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENSAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUINZENAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMANAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIÁRIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HORÁRIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAREFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faixa_etaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 a 14 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 a 17 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 a 24 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 a 29 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 a 39 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 a 49 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 a 64 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65 anos ou mais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grau_instrucao_1985_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1985(1)2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANALFABETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATE 5.A INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.A CO FUND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. A 9. FUND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUND COMPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIO INCOMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIO COMPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUP. INCOMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUP. COMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MESTRADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOUTORADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grau_instrucao_apos_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nacionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brasileira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naturalidade Brasileira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boliviana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuelano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peruano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatoriano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alemã</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Britânica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canadense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espanhola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norte-Americana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suíça</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haitiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japonesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coreana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portuguesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paquistanês</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outras Latino-Americanas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outras Asiáticas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outras Nacionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros Europeus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bengalesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angolano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congolês</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sul-Africano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ganesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegalesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros Africanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sexo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masculino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feminino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raca_cor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indígena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amarela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não identificado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicador_portador_deficiencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo_deficiencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Física</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Múltipla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reabilitado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não deficiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tamanho_estabelecimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Até 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De 5 a 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De 10 a 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De 20 a 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De 50 a 99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De 100 a 249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De 250 a 499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De 500 a 999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 ou mais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo_estabelecimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNPJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAEPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicador_simples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microdados_estabelecimentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natureza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTONOMOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMP PRIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUND PRIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUND PUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON MISTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMP PUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORG DIR PUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTARQUIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM PUB DIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tamanho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1985(1)2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002(1)2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATE 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE 5 A 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE 10 A 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE 20 A 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE 50 A 99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE 100 A 249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE 250 A 499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE 500 A 999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 OU MAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1985(1)2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAO IDENTIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subsetor_ibge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013(1)2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extrativa mineral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTR MINERAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1985(1)2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indústria de produtos minerais nao metálicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIN NAO MET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indústria metalúrgica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND METALURG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indústria mecânica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND MECANICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indústria do material elétrico e de comunicaçoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELET E COMUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indústria do material de transporte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT TRANSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indústria da madeira e do mobiliário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD E MOBIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indústria do papel, papelao, editorial e gráfica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPEL E GRAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ind. da borracha, fumo, couros, peles, similares, ind. diversas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOR FUM COUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ind. química de produtos farmacêuticos, veterinários, perfumaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND QUIMICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indústria têxtil do vestuário e artefatos de tecidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND TEXTIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indústria de calçados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND CALCADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indústria de produtos alimentícios, bebidas e álcool etílico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALIM E BEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços industriais de utilidade pública</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SER UTIL PUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construçao civil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSTR CIVIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comércio varejista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COM VAREJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comércio atacadista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COM ATACAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituiçoes de crédito, seguros e capitalizaçao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INST FINANC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Com. e administraçao de imóveis, valores mobiliários, serv. Técnico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM TEC PROF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transportes e comunicaçoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAN E COMUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serv. de alojamento, alimentaçao, reparaçao, manutençao, redaçao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALOJ COMUNIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços médicos, odontológicos e veterinários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MED ODON VET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administraçao pública direta e autárquica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM PUBLICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agricultura, silvicultura, criaçao de animais, extrativismo vegetal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGRICULTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTR/IGN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="391">
+  <si>
+    <t>id_tabela</t>
+  </si>
+  <si>
+    <t>nome_coluna</t>
+  </si>
+  <si>
+    <t>chave</t>
+  </si>
+  <si>
+    <t>cobertura_temporal</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>microdados_vinculos</t>
+  </si>
+  <si>
+    <t>tipo_vinculo</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1985(1)1993</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ESTATUTÁRIO</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TRABALHADOR AVULSO</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>TRABALHADOR TEMP</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>OUTROS</t>
+  </si>
+  <si>
+    <t>NÃO CLASSIFICADO</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1994(1)</t>
+  </si>
+  <si>
+    <t>CLT U/PJ IND</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>CLT U/PF IND</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>CLT R/PJ IND</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>CLT R/PF IND</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>ESTATUTARIO</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>ESTAT RGPS</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>ESTAT N/EFET</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>AVULSO</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1994(1)2002, 2016(1)2018</t>
+  </si>
+  <si>
+    <t>TEMPORARIO</t>
+  </si>
+  <si>
+    <t>2003(1)2015</t>
+  </si>
+  <si>
+    <t>TEMPORARIO/FIXO</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>APREND CONTR</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>CLT U/PJ DET</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>CLT U/PF DET</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>CLT R/PJ DET</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>CLT R/PF DET</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>DIRETOR</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>CONT PRZ DET</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>CONT TMP DET</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>CONT LEI EST</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>CONT LEI MUN</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>IGNORADO</t>
+  </si>
+  <si>
+    <t>vinculo_ativo_3112</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>tipo_admissao</t>
+  </si>
+  <si>
+    <t>1997(1)</t>
+  </si>
+  <si>
+    <t>NAO ADM ANO</t>
+  </si>
+  <si>
+    <t>PRIM EMPREGO</t>
+  </si>
+  <si>
+    <t>REEMPREGO</t>
+  </si>
+  <si>
+    <t>TRANS C/ONUS</t>
+  </si>
+  <si>
+    <t>TRANS S/ONUS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>REINTEGRACAO</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>RECONDUCAO</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>REVERSAO</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>EXERC PROVIS</t>
+  </si>
+  <si>
+    <t>REQUISICAO</t>
+  </si>
+  <si>
+    <t>motivo_desligamento</t>
+  </si>
+  <si>
+    <t>NAO DESL ANO</t>
+  </si>
+  <si>
+    <t>DEM COM JC</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>DEM SEM JC</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>TERM CONTR</t>
+  </si>
+  <si>
+    <t>DESL COM JC</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>DESL SEM JC</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>POSS OUT CAR</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>READAP/REDIS</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>CESSAO</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2011(1)</t>
+  </si>
+  <si>
+    <t>REDISTRIBUIÇÃO</t>
+  </si>
+  <si>
+    <t>MUD. REGIME</t>
+  </si>
+  <si>
+    <t>REFORMA</t>
+  </si>
+  <si>
+    <t>FALECIMENTO</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>FALEC AC TRB</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>FALEC AC TIP</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>FALEC D PROF</t>
+  </si>
+  <si>
+    <t>APOS TS CRES</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>APOS TS SRES</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>APOS ID CRES</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>APOS IN ACID</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>APOS IN DOEN</t>
+  </si>
+  <si>
+    <t>APOS COMPULS</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>APOS IN OUTR</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>APOS ID SRES</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>APOS ESP CRE</t>
+  </si>
+  <si>
+    <t>APOS ESP SRE</t>
+  </si>
+  <si>
+    <t>causa_desligamento_1</t>
+  </si>
+  <si>
+    <t>2002(1)</t>
+  </si>
+  <si>
+    <t>ACI TRB TIP</t>
+  </si>
+  <si>
+    <t>ACI TRB TJT</t>
+  </si>
+  <si>
+    <t>DOEN REL TR</t>
+  </si>
+  <si>
+    <t>DOEN NREL TR</t>
+  </si>
+  <si>
+    <t>LIC MATERNID</t>
+  </si>
+  <si>
+    <t>SERV MILITAR</t>
+  </si>
+  <si>
+    <t>LIC SEM VENC</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>SEM AFASTAMENTOS</t>
+  </si>
+  <si>
+    <t>causa_desligamento_2</t>
+  </si>
+  <si>
+    <t>causa_desligamento_3</t>
+  </si>
+  <si>
+    <t>faixa_horas_contratadas</t>
+  </si>
+  <si>
+    <t>Até 12 horas</t>
+  </si>
+  <si>
+    <t>13 a 15 horas</t>
+  </si>
+  <si>
+    <t>16 a 20 horas</t>
+  </si>
+  <si>
+    <t>21 a 30 horas</t>
+  </si>
+  <si>
+    <t>31 a 40 horas</t>
+  </si>
+  <si>
+    <t>41 a 44 horas</t>
+  </si>
+  <si>
+    <t>indicador_cei_vinculado</t>
+  </si>
+  <si>
+    <t>1999(1)</t>
+  </si>
+  <si>
+    <t>indicador_trabalho_parcial</t>
+  </si>
+  <si>
+    <t>2017(1)</t>
+  </si>
+  <si>
+    <t>indicador_trabalho_intermitente</t>
+  </si>
+  <si>
+    <t>faixa_remuneracao_media_sm</t>
+  </si>
+  <si>
+    <t>Até 0,50 salários mínimos</t>
+  </si>
+  <si>
+    <t>0,51 a 1,00 salários mínimos</t>
+  </si>
+  <si>
+    <t>1,01 a 1,50 salários mínimos</t>
+  </si>
+  <si>
+    <t>1,51 a 2,00 salários mínimos</t>
+  </si>
+  <si>
+    <t>2,01 a 3,00 salários mínimos</t>
+  </si>
+  <si>
+    <t>3,01 a 4,00 salários mínimos</t>
+  </si>
+  <si>
+    <t>4,01 a 5,00 salários mínimos</t>
+  </si>
+  <si>
+    <t>5,01 a 7,00 salários mínimos</t>
+  </si>
+  <si>
+    <t>7,01 a 10,00 salários mínimos</t>
+  </si>
+  <si>
+    <t>10,01 a 15,00 salários mínimos</t>
+  </si>
+  <si>
+    <t>15,01 a 20,00 salários mínimos</t>
+  </si>
+  <si>
+    <t>Mais de 20,00 salários mínimos</t>
+  </si>
+  <si>
+    <t>faixa_remuneracao_dezembro_sm</t>
+  </si>
+  <si>
+    <t>tipo_salario</t>
+  </si>
+  <si>
+    <t>2018(1)</t>
+  </si>
+  <si>
+    <t>MENSAL</t>
+  </si>
+  <si>
+    <t>QUINZENAL</t>
+  </si>
+  <si>
+    <t>SEMANAL</t>
+  </si>
+  <si>
+    <t>DIÁRIO</t>
+  </si>
+  <si>
+    <t>HORÁRIO</t>
+  </si>
+  <si>
+    <t>TAREFA</t>
+  </si>
+  <si>
+    <t>faixa_etaria</t>
+  </si>
+  <si>
+    <t>10 a 14 anos</t>
+  </si>
+  <si>
+    <t>15 a 17 anos</t>
+  </si>
+  <si>
+    <t>18 a 24 anos</t>
+  </si>
+  <si>
+    <t>25 a 29 anos</t>
+  </si>
+  <si>
+    <t>30 a 39 anos</t>
+  </si>
+  <si>
+    <t>40 a 49 anos</t>
+  </si>
+  <si>
+    <t>50 a 64 anos</t>
+  </si>
+  <si>
+    <t>65 anos ou mais</t>
+  </si>
+  <si>
+    <t>grau_instrucao_1985_2005</t>
+  </si>
+  <si>
+    <t>1985(1)2005</t>
+  </si>
+  <si>
+    <t>ANALFABETO</t>
+  </si>
+  <si>
+    <t>ATE 5.A INC</t>
+  </si>
+  <si>
+    <t>5.A CO FUND</t>
+  </si>
+  <si>
+    <t>6. A 9. FUND</t>
+  </si>
+  <si>
+    <t>FUND COMPL</t>
+  </si>
+  <si>
+    <t>MEDIO INCOMP</t>
+  </si>
+  <si>
+    <t>MEDIO COMPL</t>
+  </si>
+  <si>
+    <t>SUP. INCOMP</t>
+  </si>
+  <si>
+    <t>SUP. COMP</t>
+  </si>
+  <si>
+    <t>MESTRADO</t>
+  </si>
+  <si>
+    <t>DOUTORADO</t>
+  </si>
+  <si>
+    <t>grau_instrucao_apos_2005</t>
+  </si>
+  <si>
+    <t>2005(1)</t>
+  </si>
+  <si>
+    <t>nacionalidade</t>
+  </si>
+  <si>
+    <t>Brasileira</t>
+  </si>
+  <si>
+    <t>Naturalidade Brasileira</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Boliviana</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Chilena</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Paraguaia</t>
+  </si>
+  <si>
+    <t>Uruguaia</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Venezuelano</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Colombiano</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Peruano</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Equatoriano</t>
+  </si>
+  <si>
+    <t>Alemã</t>
+  </si>
+  <si>
+    <t>Belga</t>
+  </si>
+  <si>
+    <t>Britânica</t>
+  </si>
+  <si>
+    <t>Canadense</t>
+  </si>
+  <si>
+    <t>Espanhola</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Norte-Americana</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Francesa</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Suíça</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Italiana</t>
+  </si>
+  <si>
+    <t>Haitiano</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Japonesa</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Chinesa</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Coreana</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Russo</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Portuguesa</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Paquistanês</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Indiano</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Outras Latino-Americanas</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Outras Asiáticas</t>
+  </si>
+  <si>
+    <t>Outras Nacionalidades</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Outros Europeus</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>2014(1)</t>
+  </si>
+  <si>
+    <t>Bengalesa</t>
+  </si>
+  <si>
+    <t>Angolano</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Congolês</t>
+  </si>
+  <si>
+    <t>Sul-Africano</t>
+  </si>
+  <si>
+    <t>Ganesa</t>
+  </si>
+  <si>
+    <t>Senegalesa</t>
+  </si>
+  <si>
+    <t>Outros Africanos</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Ignorado</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>raca_cor</t>
+  </si>
+  <si>
+    <t>2006(1)</t>
+  </si>
+  <si>
+    <t>Indígena</t>
+  </si>
+  <si>
+    <t>Branca</t>
+  </si>
+  <si>
+    <t>Preta</t>
+  </si>
+  <si>
+    <t>Amarela</t>
+  </si>
+  <si>
+    <t>Parda</t>
+  </si>
+  <si>
+    <t>Não identificado</t>
+  </si>
+  <si>
+    <t>indicador_portador_deficiencia</t>
+  </si>
+  <si>
+    <t>2007(1)</t>
+  </si>
+  <si>
+    <t>tipo_deficiencia</t>
+  </si>
+  <si>
+    <t>Física</t>
+  </si>
+  <si>
+    <t>Auditiva</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Mental</t>
+  </si>
+  <si>
+    <t>Múltipla</t>
+  </si>
+  <si>
+    <t>Reabilitado</t>
+  </si>
+  <si>
+    <t>Não deficiente</t>
+  </si>
+  <si>
+    <t>tamanho_estabelecimento</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Até 4</t>
+  </si>
+  <si>
+    <t>De 5 a 9</t>
+  </si>
+  <si>
+    <t>De 10 a 19</t>
+  </si>
+  <si>
+    <t>De 20 a 49</t>
+  </si>
+  <si>
+    <t>De 50 a 99</t>
+  </si>
+  <si>
+    <t>De 100 a 249</t>
+  </si>
+  <si>
+    <t>De 250 a 499</t>
+  </si>
+  <si>
+    <t>De 500 a 999</t>
+  </si>
+  <si>
+    <t>1000 ou mais</t>
+  </si>
+  <si>
+    <t>tipo_estabelecimento</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>CAEPF</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t>indicador_simples</t>
+  </si>
+  <si>
+    <t>microdados_estabelecimentos</t>
+  </si>
+  <si>
+    <t>natureza</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>AUTONOMOS</t>
+  </si>
+  <si>
+    <t>EMP PRIV</t>
+  </si>
+  <si>
+    <t>FUND PRIV</t>
+  </si>
+  <si>
+    <t>FUND PUB</t>
+  </si>
+  <si>
+    <t>ECON MISTA</t>
+  </si>
+  <si>
+    <t>EMP PUB</t>
+  </si>
+  <si>
+    <t>ORG DIR PUB</t>
+  </si>
+  <si>
+    <t>AUTARQUIAS</t>
+  </si>
+  <si>
+    <t>ADM PUB DIR</t>
+  </si>
+  <si>
+    <t>CARTORIO</t>
+  </si>
+  <si>
+    <t>tamanho</t>
+  </si>
+  <si>
+    <t>1985(1)2001</t>
+  </si>
+  <si>
+    <t>ZERO</t>
+  </si>
+  <si>
+    <t>2002(1)2018</t>
+  </si>
+  <si>
+    <t>ATE 4</t>
+  </si>
+  <si>
+    <t>DE 5 A 9</t>
+  </si>
+  <si>
+    <t>DE 10 A 19</t>
+  </si>
+  <si>
+    <t>DE 20 A 49</t>
+  </si>
+  <si>
+    <t>DE 50 A 99</t>
+  </si>
+  <si>
+    <t>DE 100 A 249</t>
+  </si>
+  <si>
+    <t>DE 250 A 499</t>
+  </si>
+  <si>
+    <t>DE 500 A 999</t>
+  </si>
+  <si>
+    <t>1000 OU MAIS</t>
+  </si>
+  <si>
+    <t>1985(1)2018</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>NAO IDENTIF</t>
+  </si>
+  <si>
+    <t>subsetor_ibge</t>
+  </si>
+  <si>
+    <t>2013(1)2018</t>
+  </si>
+  <si>
+    <t>Extrativa mineral</t>
+  </si>
+  <si>
+    <t>EXTR MINERAL</t>
+  </si>
+  <si>
+    <t>1985(1)2012</t>
+  </si>
+  <si>
+    <t>Indústria de produtos minerais nao metálicos</t>
+  </si>
+  <si>
+    <t>MIN NAO MET</t>
+  </si>
+  <si>
+    <t>Indústria metalúrgica</t>
+  </si>
+  <si>
+    <t>IND METALURG</t>
+  </si>
+  <si>
+    <t>Indústria mecânica</t>
+  </si>
+  <si>
+    <t>IND MECANICA</t>
+  </si>
+  <si>
+    <t>Indústria do material elétrico e de comunicaçoes</t>
+  </si>
+  <si>
+    <t>ELET E COMUN</t>
+  </si>
+  <si>
+    <t>Indústria do material de transporte</t>
+  </si>
+  <si>
+    <t>MAT TRANSP</t>
+  </si>
+  <si>
+    <t>Indústria da madeira e do mobiliário</t>
+  </si>
+  <si>
+    <t>MAD E MOBIL</t>
+  </si>
+  <si>
+    <t>Indústria do papel, papelao, editorial e gráfica</t>
+  </si>
+  <si>
+    <t>PAPEL E GRAF</t>
+  </si>
+  <si>
+    <t>Ind. da borracha, fumo, couros, peles, similares, ind. diversas</t>
+  </si>
+  <si>
+    <t>BOR FUM COUR</t>
+  </si>
+  <si>
+    <t>Ind. química de produtos farmacêuticos, veterinários, perfumaria</t>
+  </si>
+  <si>
+    <t>IND QUIMICA</t>
+  </si>
+  <si>
+    <t>Indústria têxtil do vestuário e artefatos de tecidos</t>
+  </si>
+  <si>
+    <t>IND TEXTIL</t>
+  </si>
+  <si>
+    <t>Indústria de calçados</t>
+  </si>
+  <si>
+    <t>IND CALCADOS</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Indústria de produtos alimentícios, bebidas e álcool etílico</t>
+  </si>
+  <si>
+    <t>ALIM E BEB</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Serviços industriais de utilidade pública</t>
+  </si>
+  <si>
+    <t>SER UTIL PUB</t>
+  </si>
+  <si>
+    <t>Construçao civil</t>
+  </si>
+  <si>
+    <t>CONSTR CIVIL</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Comércio varejista</t>
+  </si>
+  <si>
+    <t>COM VAREJ</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Comércio atacadista</t>
+  </si>
+  <si>
+    <t>COM ATACAD</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Instituiçoes de crédito, seguros e capitalizaçao</t>
+  </si>
+  <si>
+    <t>INST FINANC</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Com. e administraçao de imóveis, valores mobiliários, serv. Técnico</t>
+  </si>
+  <si>
+    <t>ADM TEC PROF</t>
+  </si>
+  <si>
+    <t>Transportes e comunicaçoes</t>
+  </si>
+  <si>
+    <t>TRAN E COMUN</t>
+  </si>
+  <si>
+    <t>Serv. de alojamento, alimentaçao, reparaçao, manutençao, redaçao</t>
+  </si>
+  <si>
+    <t>ALOJ COMUNIC</t>
+  </si>
+  <si>
+    <t>Serviços médicos, odontológicos e veterinários</t>
+  </si>
+  <si>
+    <t>MED ODON VET</t>
+  </si>
+  <si>
+    <t>Ensino</t>
+  </si>
+  <si>
+    <t>ENSINO</t>
+  </si>
+  <si>
+    <t>Administraçao pública direta e autárquica</t>
+  </si>
+  <si>
+    <t>ADM PUBLICA</t>
+  </si>
+  <si>
+    <t>Agricultura, silvicultura, criaçao de animais, extrativismo vegetal</t>
+  </si>
+  <si>
+    <t>AGRICULTURA</t>
+  </si>
+  <si>
+    <t>OUTR/IGN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1228,6 +1235,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1509,14 +1525,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E342"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:E150"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1550,7 +1573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1567,7 +1590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1584,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1601,7 +1624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1618,14 +1641,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7"/>
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -1633,7 +1655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1667,7 +1689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1684,7 +1706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1701,7 +1723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1735,7 +1757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1769,7 +1791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1786,7 +1808,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1820,7 +1842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1837,7 +1859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1854,7 +1876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1871,7 +1893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1888,7 +1910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1905,7 +1927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1944,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1939,7 +1961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +1978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1973,7 +1995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +2012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2007,7 +2029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2046,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2041,7 +2063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2058,7 +2080,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2075,7 +2097,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2092,7 +2114,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2131,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2126,7 +2148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2143,7 +2165,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2182,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2199,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2194,7 +2216,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2211,7 +2233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2228,7 +2250,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2245,7 +2267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2262,7 +2284,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2279,7 +2301,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2318,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2313,7 +2335,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2330,7 +2352,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2347,7 +2369,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2386,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2381,7 +2403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2398,7 +2420,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2415,7 +2437,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2454,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2449,7 +2471,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2466,7 +2488,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +2505,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2500,7 +2522,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2517,7 +2539,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2534,7 +2556,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2551,7 +2573,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2568,7 +2590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2585,7 +2607,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2602,7 +2624,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2619,7 +2641,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2636,7 +2658,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2653,7 +2675,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2670,7 +2692,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2687,7 +2709,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2704,7 +2726,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2721,7 +2743,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2738,7 +2760,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2755,7 +2777,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2772,7 +2794,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2789,7 +2811,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2806,7 +2828,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2823,7 +2845,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2840,7 +2862,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2857,7 +2879,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2891,7 +2913,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2908,7 +2930,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2925,7 +2947,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2942,7 +2964,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2959,7 +2981,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2976,7 +2998,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2993,7 +3015,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -3010,7 +3032,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -3027,7 +3049,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -3044,7 +3066,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -3061,7 +3083,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -3078,7 +3100,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3095,7 +3117,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -3112,7 +3134,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -3129,7 +3151,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -3146,7 +3168,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -3163,7 +3185,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -3180,7 +3202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -3197,7 +3219,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -3214,7 +3236,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -3231,7 +3253,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -3248,7 +3270,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -3265,7 +3287,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -3282,7 +3304,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -3299,7 +3321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -3316,7 +3338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -3333,7 +3355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -3350,7 +3372,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -3367,7 +3389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -3384,7 +3406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -3401,7 +3423,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -3418,7 +3440,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3435,7 +3457,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -3452,7 +3474,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -3469,7 +3491,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -3486,7 +3508,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -3503,7 +3525,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3520,7 +3542,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -3537,7 +3559,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -3554,7 +3576,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -3571,7 +3593,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3588,7 +3610,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -3605,7 +3627,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3622,7 +3644,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -3639,7 +3661,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3656,7 +3678,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3673,7 +3695,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3690,7 +3712,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -3707,7 +3729,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -3724,7 +3746,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -3741,7 +3763,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3758,7 +3780,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -3775,7 +3797,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -3792,7 +3814,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -3809,7 +3831,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3826,7 +3848,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -3843,7 +3865,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -3860,7 +3882,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -3877,7 +3899,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -3894,7 +3916,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +3933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -3928,7 +3950,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -3945,7 +3967,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -3962,7 +3984,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -3979,7 +4001,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -3996,7 +4018,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4013,7 +4035,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -4030,7 +4052,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -4047,7 +4069,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -4064,7 +4086,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -4081,7 +4103,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -4098,7 +4120,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -4115,7 +4137,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -4132,7 +4154,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -4149,7 +4171,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -4166,7 +4188,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -4183,7 +4205,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -4200,7 +4222,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -4217,7 +4239,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -4234,7 +4256,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -4251,7 +4273,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -4268,7 +4290,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -4285,7 +4307,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -4302,7 +4324,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -4319,7 +4341,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -4336,7 +4358,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -4353,7 +4375,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4370,7 +4392,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -4387,7 +4409,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -4404,7 +4426,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -4421,7 +4443,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -4438,7 +4460,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -4455,7 +4477,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -4472,7 +4494,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -4489,7 +4511,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -4506,7 +4528,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -4523,7 +4545,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -4540,7 +4562,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -4557,7 +4579,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -4574,7 +4596,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -4591,7 +4613,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -4608,7 +4630,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -4625,7 +4647,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -4642,7 +4664,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -4659,7 +4681,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -4676,7 +4698,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -4693,7 +4715,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -4710,7 +4732,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -4727,7 +4749,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -4744,7 +4766,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -4761,7 +4783,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -4778,7 +4800,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -4795,7 +4817,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -4812,7 +4834,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -4829,7 +4851,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -4846,7 +4868,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -4863,7 +4885,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -4880,7 +4902,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -4897,7 +4919,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -4914,7 +4936,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -4931,7 +4953,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -4948,7 +4970,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -4965,7 +4987,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -4982,7 +5004,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -4999,7 +5021,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -5016,7 +5038,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -5033,7 +5055,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -5050,7 +5072,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -5067,7 +5089,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -5084,7 +5106,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -5101,7 +5123,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -5118,7 +5140,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -5135,7 +5157,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -5152,7 +5174,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -5169,7 +5191,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -5186,7 +5208,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -5203,7 +5225,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -5220,7 +5242,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -5237,7 +5259,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -5254,7 +5276,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -5271,7 +5293,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -5288,7 +5310,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -5305,7 +5327,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -5322,7 +5344,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -5339,7 +5361,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -5356,7 +5378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -5373,7 +5395,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -5390,7 +5412,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -5407,7 +5429,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5424,7 +5446,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -5441,7 +5463,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -5458,7 +5480,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -5475,7 +5497,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -5492,7 +5514,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -5509,7 +5531,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -5526,7 +5548,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -5543,7 +5565,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -5560,7 +5582,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -5577,7 +5599,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -5594,7 +5616,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -5611,7 +5633,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -5628,7 +5650,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -5645,7 +5667,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -5662,7 +5684,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -5679,7 +5701,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -5696,7 +5718,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -5713,7 +5735,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -5730,7 +5752,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -5747,7 +5769,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -5764,7 +5786,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -5781,7 +5803,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -5798,7 +5820,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -5815,7 +5837,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>302</v>
       </c>
@@ -5832,7 +5854,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>302</v>
       </c>
@@ -5849,7 +5871,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>302</v>
       </c>
@@ -5866,7 +5888,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>302</v>
       </c>
@@ -5883,7 +5905,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>302</v>
       </c>
@@ -5900,7 +5922,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>302</v>
       </c>
@@ -5917,7 +5939,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>302</v>
       </c>
@@ -5934,7 +5956,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>302</v>
       </c>
@@ -5951,7 +5973,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>302</v>
       </c>
@@ -5968,7 +5990,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>302</v>
       </c>
@@ -5985,7 +6007,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>302</v>
       </c>
@@ -6002,7 +6024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>302</v>
       </c>
@@ -6019,7 +6041,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>302</v>
       </c>
@@ -6036,7 +6058,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>302</v>
       </c>
@@ -6053,7 +6075,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>302</v>
       </c>
@@ -6070,7 +6092,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>302</v>
       </c>
@@ -6087,7 +6109,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>302</v>
       </c>
@@ -6104,7 +6126,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>302</v>
       </c>
@@ -6121,7 +6143,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>302</v>
       </c>
@@ -6138,7 +6160,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>302</v>
       </c>
@@ -6155,7 +6177,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>302</v>
       </c>
@@ -6172,7 +6194,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>302</v>
       </c>
@@ -6189,7 +6211,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>302</v>
       </c>
@@ -6206,7 +6228,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -6223,7 +6245,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>302</v>
       </c>
@@ -6240,7 +6262,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>302</v>
       </c>
@@ -6257,7 +6279,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>302</v>
       </c>
@@ -6274,7 +6296,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>302</v>
       </c>
@@ -6291,7 +6313,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>302</v>
       </c>
@@ -6308,7 +6330,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>302</v>
       </c>
@@ -6325,7 +6347,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -6342,7 +6364,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>302</v>
       </c>
@@ -6359,7 +6381,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>302</v>
       </c>
@@ -6376,7 +6398,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>302</v>
       </c>
@@ -6393,7 +6415,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>302</v>
       </c>
@@ -6410,7 +6432,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>302</v>
       </c>
@@ -6427,7 +6449,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>302</v>
       </c>
@@ -6444,7 +6466,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>302</v>
       </c>
@@ -6461,7 +6483,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>302</v>
       </c>
@@ -6478,7 +6500,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>302</v>
       </c>
@@ -6495,7 +6517,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>302</v>
       </c>
@@ -6512,7 +6534,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>302</v>
       </c>
@@ -6529,7 +6551,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -6546,7 +6568,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>302</v>
       </c>
@@ -6563,7 +6585,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>302</v>
       </c>
@@ -6580,7 +6602,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>302</v>
       </c>
@@ -6597,7 +6619,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>302</v>
       </c>
@@ -6614,7 +6636,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -6631,7 +6653,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -6648,7 +6670,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -6665,7 +6687,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>302</v>
       </c>
@@ -6682,7 +6704,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>302</v>
       </c>
@@ -6699,7 +6721,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>302</v>
       </c>
@@ -6716,7 +6738,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>302</v>
       </c>
@@ -6733,7 +6755,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>302</v>
       </c>
@@ -6750,7 +6772,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>302</v>
       </c>
@@ -6767,7 +6789,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>302</v>
       </c>
@@ -6784,7 +6806,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>302</v>
       </c>
@@ -6801,7 +6823,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>302</v>
       </c>
@@ -6818,7 +6840,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>302</v>
       </c>
@@ -6835,7 +6857,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>302</v>
       </c>
@@ -6852,7 +6874,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>302</v>
       </c>
@@ -6869,7 +6891,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>302</v>
       </c>
@@ -6886,7 +6908,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>302</v>
       </c>
@@ -6903,7 +6925,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>302</v>
       </c>
@@ -6920,7 +6942,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>302</v>
       </c>
@@ -6937,7 +6959,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>302</v>
       </c>
@@ -6954,7 +6976,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>302</v>
       </c>
@@ -6971,7 +6993,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>302</v>
       </c>
@@ -6988,7 +7010,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>302</v>
       </c>
@@ -7005,7 +7027,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>302</v>
       </c>
@@ -7022,7 +7044,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>302</v>
       </c>
@@ -7039,7 +7061,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>302</v>
       </c>
@@ -7056,7 +7078,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>302</v>
       </c>
@@ -7073,7 +7095,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>302</v>
       </c>
@@ -7090,7 +7112,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>302</v>
       </c>
@@ -7107,7 +7129,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>302</v>
       </c>
@@ -7124,7 +7146,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>302</v>
       </c>
@@ -7141,7 +7163,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>302</v>
       </c>
@@ -7158,7 +7180,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>302</v>
       </c>
@@ -7175,7 +7197,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>302</v>
       </c>
@@ -7192,7 +7214,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>302</v>
       </c>
@@ -7209,7 +7231,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>302</v>
       </c>
@@ -7226,7 +7248,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>302</v>
       </c>
@@ -7243,7 +7265,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>302</v>
       </c>
@@ -7260,7 +7282,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>302</v>
       </c>
@@ -7277,7 +7299,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>302</v>
       </c>
@@ -7294,7 +7316,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>302</v>
       </c>
@@ -7311,7 +7333,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>302</v>
       </c>
@@ -7330,6 +7352,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>